--- a/data/arq01.xlsx
+++ b/data/arq01.xlsx
@@ -402,14 +402,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z87"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="C1" t="str">
-        <v>CONTROLES DE TICKETS - DATA 03.07.2024                                                                                                               PROFISSIONAL, ALOJADOS E FUNCIONÁRIOS</v>
+        <v>CONTROLES DE TICKETS - DATA 23.07.2024                                                                                                               PROFISSIONAL, ALOJADOS E FUNCIONÁRIOS</v>
       </c>
       <c r="K1" t="str">
         <v xml:space="preserve"> </v>
@@ -857,7 +857,7 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53">
         <v>WENDER JADSON SILVA DOS SANTOS</v>
       </c>
     </row>
@@ -865,80 +865,71 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>null</v>
+      <c r="B54" t="str">
+        <v>RAIMUNDO NONATO LIMA NETO</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>null</v>
+      <c r="B55" t="str">
+        <v>RUAN CASAGRANDE CARVALHO</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>null</v>
+      <c r="B56" t="str">
+        <v>SAMUEL MICHELS VALENCIO</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>null</v>
+      <c r="B57" t="str">
+        <v>SERGIO ALVES DOS SANTOS</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>null</v>
+      <c r="B58" t="str">
+        <v>THIAGO SOUZA DOS SANTOS TINOCO</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>null</v>
+      <c r="B59" t="str">
+        <v>TIAGO DE SOUZA NASCIMENTO</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>null</v>
+      <c r="B60" t="str">
+        <v>VASYL CUSTODIO SACIURA</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>null</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>null</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63">
         <v>61</v>
-      </c>
-      <c r="B63">
-        <v>null</v>
       </c>
     </row>
     <row r="64">
@@ -970,7 +961,7 @@
   </mergeCells>
   <pageMargins left="0.5118110236220472" right="0.5118110236220472" top="0.7874015748031497" bottom="0.3937007874015748" header="0.5118110236220472" footer="0.5118110236220472"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Z87"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S70"/>
   </ignoredErrors>
 </worksheet>
 </file>